--- a/2-Requisitos/2.5-Planilha_de_Contagem/Planilha de Contagem - SW.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Planilha de Contagem - SW.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Revisor">Contagem!$F$8</definedName>
     <definedName name="UFPB">Contagem!$Y$12</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
@@ -1336,31 +1336,17 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1370,52 +1356,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,18 +1422,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,7 +1446,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,11 +1458,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2069,6 +2069,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2377,6 +2425,54 @@
           <a:ahLst/>
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9534525" cy="6096000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -2719,6 +2815,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2977,17 +3121,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -3005,36 +3149,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="86"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -3043,34 +3187,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="83"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -3080,34 +3224,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="92"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="86"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -3117,47 +3261,47 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="96" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="74"/>
       <c r="R4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="6">
         <v>0</v>
       </c>
       <c r="U4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="78">
+      <c r="V4" s="74"/>
+      <c r="W4" s="95">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="75"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="74"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -3167,43 +3311,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="76" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="74"/>
       <c r="U5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="81">
+      <c r="V5" s="74"/>
+      <c r="W5" s="73">
         <f>SUM(Y11:Y14)</f>
         <v>204</v>
       </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="74"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -3213,38 +3357,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="76" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="74"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -3254,40 +3398,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="76" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="82" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="75"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="74"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -3297,38 +3441,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="82" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="75"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="74"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -3377,43 +3521,43 @@
       <c r="A10" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="21"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="85"/>
+      <c r="P10" s="79"/>
       <c r="Q10" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="74"/>
       <c r="U10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="74"/>
       <c r="Y10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="75"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="74"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -3423,46 +3567,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="21"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="82" t="s">
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="81">
+      <c r="R11" s="74"/>
+      <c r="S11" s="73">
         <f>Sumário!E55</f>
         <v>204</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="83">
+      <c r="T11" s="74"/>
+      <c r="U11" s="75">
         <v>1</v>
       </c>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="81">
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="73">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
         <v>204</v>
       </c>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="75"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="74"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -3472,46 +3616,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="73" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="21"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="82" t="s">
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="81">
+      <c r="R12" s="76"/>
+      <c r="S12" s="73">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="83">
+      <c r="T12" s="74"/>
+      <c r="U12" s="75">
         <v>1</v>
       </c>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="81">
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="75"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="74"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -3521,46 +3665,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="73" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="21"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="82" t="s">
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="81">
+      <c r="R13" s="76"/>
+      <c r="S13" s="73">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="83">
+      <c r="T13" s="74"/>
+      <c r="U13" s="75">
         <v>1</v>
       </c>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="81">
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="75"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="74"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -3570,8 +3714,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3584,26 +3728,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="81">
+      <c r="O14" s="84"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="73">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="81">
+      <c r="T14" s="74"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="75"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="74"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -3666,14 +3810,14 @@
       <c r="K16" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -3692,34 +3836,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="86"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="80"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3729,34 +3873,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="89"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="83"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3766,34 +3910,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="89"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3803,34 +3947,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="89"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="83"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3840,34 +3984,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="89"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3877,34 +4021,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="89"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="83"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -3914,34 +4058,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="89"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="83"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -3951,34 +4095,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="89"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="83"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3988,34 +4132,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="89"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -4025,34 +4169,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="87"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="89"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="83"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -4062,34 +4206,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="89"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="83"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -4099,34 +4243,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="89"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="83"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -4136,34 +4280,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="89"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="83"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -4173,34 +4317,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="89"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="83"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -4210,34 +4354,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="89"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="83"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -4247,34 +4391,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="89"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="83"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -4284,34 +4428,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="89"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -4321,34 +4465,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="89"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="83"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -4358,34 +4502,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="89"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="83"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -4395,34 +4539,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="89"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="83"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -4432,34 +4576,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="89"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="83"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -4469,34 +4613,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="92"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="86"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -4556,14 +4700,14 @@
       <c r="K40" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4582,34 +4726,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="86"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="80"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -4619,34 +4763,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="89"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="83"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -4656,34 +4800,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="87"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="89"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="83"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -4693,34 +4837,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="89"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="83"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -4730,34 +4874,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="89"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="83"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4767,34 +4911,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="89"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="83"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4804,34 +4948,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="87"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="89"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="83"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4841,34 +4985,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="87"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="89"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="83"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -4878,34 +5022,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="87"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="89"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="83"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -4915,34 +5059,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="89"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="83"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -4952,34 +5096,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="89"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="83"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -4989,34 +5133,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="89"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="83"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -5026,34 +5170,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="89"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="83"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -5063,34 +5207,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="89"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+      <c r="T54" s="82"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="82"/>
+      <c r="W54" s="82"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
+      <c r="AB54" s="83"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -5100,34 +5244,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="89"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="82"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
+      <c r="W55" s="82"/>
+      <c r="X55" s="82"/>
+      <c r="Y55" s="82"/>
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="82"/>
+      <c r="AB55" s="83"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -5137,34 +5281,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="89"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="83"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -5174,34 +5318,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="87"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="89"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="83"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -5211,34 +5355,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="87"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="89"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="82"/>
+      <c r="U58" s="82"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="82"/>
+      <c r="AA58" s="82"/>
+      <c r="AB58" s="83"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -5248,34 +5392,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="89"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="82"/>
+      <c r="T59" s="82"/>
+      <c r="U59" s="82"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+      <c r="AA59" s="82"/>
+      <c r="AB59" s="83"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -5285,34 +5429,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="90"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="91"/>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="91"/>
-      <c r="W60" s="91"/>
-      <c r="X60" s="91"/>
-      <c r="Y60" s="91"/>
-      <c r="Z60" s="91"/>
-      <c r="AA60" s="91"/>
-      <c r="AB60" s="92"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="85"/>
+      <c r="U60" s="85"/>
+      <c r="V60" s="85"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="85"/>
+      <c r="Y60" s="85"/>
+      <c r="Z60" s="85"/>
+      <c r="AA60" s="85"/>
+      <c r="AB60" s="86"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -5360,23 +5504,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="K40:S40"/>
@@ -5393,22 +5536,23 @@
     <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="U12:X12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y12:AB12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -5420,7 +5564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5448,23 +5592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -5472,21 +5616,21 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -5494,21 +5638,21 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -5516,89 +5660,89 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="111" t="str">
+      <c r="A4" s="104" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : SW</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="104" t="str">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="117" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Sistema Web</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="74"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="110" t="str">
+      <c r="A5" s="103" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Silvio Coelho</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="104" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="117" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="110" t="str">
+      <c r="A6" s="103" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Infinity Brasil</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="104" t="str">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="117" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="109" t="str">
+      <c r="G6" s="74"/>
+      <c r="H6" s="122" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="105" t="str">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="118" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 204</v>
       </c>
-      <c r="O6" s="106"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5606,14 +5750,14 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
@@ -5641,16 +5785,16 @@
       <c r="O7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="106" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="100"/>
@@ -5697,7 +5841,7 @@
       <c r="T8" s="98"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="102" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="100"/>
@@ -5744,7 +5888,7 @@
       <c r="T9" s="98"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="102" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="100"/>
@@ -5791,7 +5935,7 @@
       <c r="T10" s="98"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="99" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="100"/>
@@ -5838,7 +5982,7 @@
       <c r="T11" s="98"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="102" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="100"/>
@@ -5885,7 +6029,7 @@
       <c r="T12" s="98"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="102" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="100"/>
@@ -5932,14 +6076,14 @@
       <c r="T13" s="98"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="116"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="22" t="s">
         <v>52</v>
       </c>
@@ -5979,14 +6123,14 @@
       <c r="T14" s="98"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="116"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="22" t="s">
         <v>49</v>
       </c>
@@ -6026,14 +6170,14 @@
       <c r="T15" s="38"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="116"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="67" t="s">
         <v>52</v>
       </c>
@@ -6073,12 +6217,12 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="122"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24" t="s">
         <v>36</v>
@@ -6112,14 +6256,14 @@
       <c r="T17" s="98"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="67" t="s">
         <v>31</v>
       </c>
@@ -6159,7 +6303,7 @@
       <c r="T18" s="98"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="99" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="100"/>
@@ -6206,7 +6350,7 @@
       <c r="T19" s="98"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="99" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="100"/>
@@ -6253,7 +6397,7 @@
       <c r="T20" s="98"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="99" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="100"/>
@@ -6300,7 +6444,7 @@
       <c r="T21" s="98"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="99" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="100"/>
@@ -6347,7 +6491,7 @@
       <c r="T22" s="98"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="99" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="100"/>
@@ -8219,7 +8363,7 @@
       <c r="T65" s="98"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="99"/>
+      <c r="A66" s="102"/>
       <c r="B66" s="100"/>
       <c r="C66" s="100"/>
       <c r="D66" s="100"/>
@@ -8258,7 +8402,7 @@
       <c r="T66" s="98"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="99"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="100"/>
       <c r="C67" s="100"/>
       <c r="D67" s="100"/>
@@ -8297,7 +8441,7 @@
       <c r="T67" s="98"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="99"/>
+      <c r="A68" s="102"/>
       <c r="B68" s="100"/>
       <c r="C68" s="100"/>
       <c r="D68" s="100"/>
@@ -8336,7 +8480,7 @@
       <c r="T68" s="98"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="99"/>
+      <c r="A69" s="102"/>
       <c r="B69" s="100"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
@@ -8375,7 +8519,7 @@
       <c r="T69" s="98"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="99"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="100"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
@@ -8414,7 +8558,7 @@
       <c r="T70" s="98"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="99"/>
+      <c r="A71" s="102"/>
       <c r="B71" s="100"/>
       <c r="C71" s="100"/>
       <c r="D71" s="100"/>
@@ -8453,7 +8597,7 @@
       <c r="T71" s="98"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="99"/>
+      <c r="A72" s="102"/>
       <c r="B72" s="100"/>
       <c r="C72" s="100"/>
       <c r="D72" s="100"/>
@@ -8492,7 +8636,7 @@
       <c r="T72" s="98"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="99"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="100"/>
       <c r="C73" s="100"/>
       <c r="D73" s="100"/>
@@ -8531,7 +8675,7 @@
       <c r="T73" s="98"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="99"/>
+      <c r="A74" s="102"/>
       <c r="B74" s="100"/>
       <c r="C74" s="100"/>
       <c r="D74" s="100"/>
@@ -8570,7 +8714,7 @@
       <c r="T74" s="98"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="99"/>
+      <c r="A75" s="102"/>
       <c r="B75" s="100"/>
       <c r="C75" s="100"/>
       <c r="D75" s="100"/>
@@ -8609,7 +8753,7 @@
       <c r="T75" s="98"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="99"/>
+      <c r="A76" s="102"/>
       <c r="B76" s="100"/>
       <c r="C76" s="100"/>
       <c r="D76" s="100"/>
@@ -8648,7 +8792,7 @@
       <c r="T76" s="98"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="99"/>
+      <c r="A77" s="102"/>
       <c r="B77" s="100"/>
       <c r="C77" s="100"/>
       <c r="D77" s="100"/>
@@ -8687,7 +8831,7 @@
       <c r="T77" s="98"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="99"/>
+      <c r="A78" s="102"/>
       <c r="B78" s="100"/>
       <c r="C78" s="100"/>
       <c r="D78" s="100"/>
@@ -8726,7 +8870,7 @@
       <c r="T78" s="98"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="99"/>
+      <c r="A79" s="102"/>
       <c r="B79" s="100"/>
       <c r="C79" s="100"/>
       <c r="D79" s="100"/>
@@ -8765,7 +8909,7 @@
       <c r="T79" s="98"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="99"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="100"/>
       <c r="C80" s="100"/>
       <c r="D80" s="100"/>
@@ -8804,7 +8948,7 @@
       <c r="T80" s="98"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="99"/>
+      <c r="A81" s="102"/>
       <c r="B81" s="100"/>
       <c r="C81" s="100"/>
       <c r="D81" s="100"/>
@@ -8843,7 +8987,7 @@
       <c r="T81" s="98"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="99"/>
+      <c r="A82" s="102"/>
       <c r="B82" s="100"/>
       <c r="C82" s="100"/>
       <c r="D82" s="100"/>
@@ -8882,7 +9026,7 @@
       <c r="T82" s="98"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="99"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="100"/>
       <c r="C83" s="100"/>
       <c r="D83" s="100"/>
@@ -8921,7 +9065,7 @@
       <c r="T83" s="98"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="99"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="100"/>
       <c r="C84" s="100"/>
       <c r="D84" s="100"/>
@@ -8960,7 +9104,7 @@
       <c r="T84" s="98"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="99"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="100"/>
       <c r="C85" s="100"/>
       <c r="D85" s="100"/>
@@ -8999,7 +9143,7 @@
       <c r="T85" s="98"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="99"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="100"/>
       <c r="C86" s="100"/>
       <c r="D86" s="100"/>
@@ -9038,7 +9182,7 @@
       <c r="T86" s="98"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="99"/>
+      <c r="A87" s="102"/>
       <c r="B87" s="100"/>
       <c r="C87" s="100"/>
       <c r="D87" s="100"/>
@@ -9117,37 +9261,79 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="P14:T14"/>
     <mergeCell ref="P17:T17"/>
     <mergeCell ref="P18:T18"/>
@@ -9172,79 +9358,37 @@
     <mergeCell ref="P29:T29"/>
     <mergeCell ref="P26:T26"/>
     <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
   </mergeCells>
   <conditionalFormatting sqref="H32:H37 H62:H88 H39:H59 H8:H30">
     <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
@@ -9329,10 +9473,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -9353,88 +9497,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="131"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="132"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="126" t="str">
+      <c r="A4" s="133" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : SW</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="134" t="str">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="131" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Sistema Web</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="135"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="126" t="str">
+      <c r="A5" s="133" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Silvio Coelho</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="134" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="131" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="135"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="3" t="str">
@@ -9445,58 +9589,58 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="138" t="str">
+      <c r="F6" s="136" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="138" t="str">
+      <c r="G6" s="74"/>
+      <c r="H6" s="136" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="137" t="str">
+      <c r="I6" s="76"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="135" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 204</v>
       </c>
-      <c r="L6" s="135"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="125" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="133" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133" t="s">
+      <c r="H7" s="130"/>
+      <c r="I7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="136"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="134"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="132"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="128"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="13"/>
@@ -10392,11 +10536,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="47">
         <f>SUMIF(Funções!$H$8:$H$88,"I",Funções!$N$8:$N$88)</f>
         <v>204</v>
@@ -10419,11 +10563,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="47">
         <f>SUMIF(Funções!$H$8:$H$88,"A",Funções!$N$8:$N$88)</f>
         <v>0</v>
@@ -10447,11 +10591,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="47">
         <f>SUMIF(Funções!$H$8:$H$88,"E",Funções!$N$8:$N$88)</f>
         <v>0</v>
@@ -10472,11 +10616,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="47">
         <f>SUMIF(Funções!$H$8:$H$88,"T",Funções!$N$8:$N$88)</f>
         <v>0</v>
@@ -10511,6 +10655,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B57:D57"/>
@@ -10527,8 +10673,6 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
